--- a/Packages/cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C01964AF-3F97-C042-9AA1-AB16D98E2407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0C624-C6D4-D547-BDCF-0E0513E373D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2480" yWindow="2660" windowWidth="32880" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -34,9 +34,6 @@
     <t>NeedSaveDB</t>
   </si>
   <si>
-    <t>NoticeType</t>
-  </si>
-  <si>
     <t>MaxNumericType</t>
   </si>
   <si>
@@ -83,12 +80,6 @@
   </si>
   <si>
     <t>影响的属性id</t>
-  </si>
-  <si>
-    <t>NoNotice = 0,
-Self = 1,
-Broadcast = 2,
-BroadcastWithoutSelf = 3,</t>
   </si>
   <si>
     <r>
@@ -184,6 +175,26 @@
   <si>
     <t>相位</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeType</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoNotice = 0,
+Self = 1,
+Broadcast = 2,
+BroadcastWithoutSelf = 3,</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoNotice</t>
+  </si>
+  <si>
+    <t>Broadcast</t>
+  </si>
+  <si>
+    <t>Self</t>
   </si>
 </sst>
 </file>
@@ -555,7 +566,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -587,89 +598,89 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="60">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -677,13 +688,13 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -691,7 +702,7 @@
         <v>1000</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
@@ -700,8 +711,8 @@
       <c r="F6" s="4">
         <v>1</v>
       </c>
-      <c r="G6" s="4">
-        <v>2</v>
+      <c r="G6" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -711,7 +722,7 @@
         <v>1001</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4">
@@ -720,8 +731,8 @@
       <c r="F7" s="4">
         <v>1</v>
       </c>
-      <c r="G7" s="4">
-        <v>2</v>
+      <c r="G7" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H7" s="4">
         <v>1002</v>
@@ -733,7 +744,7 @@
         <v>1002</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4">
@@ -742,8 +753,8 @@
       <c r="F8" s="4">
         <v>1</v>
       </c>
-      <c r="G8" s="4">
-        <v>2</v>
+      <c r="G8" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
@@ -753,7 +764,7 @@
         <v>1003</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4">
@@ -762,8 +773,8 @@
       <c r="F9" s="4">
         <v>1</v>
       </c>
-      <c r="G9" s="4">
-        <v>2</v>
+      <c r="G9" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H9" s="4">
         <v>1004</v>
@@ -775,7 +786,7 @@
         <v>1004</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4">
@@ -784,8 +795,8 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
-        <v>2</v>
+      <c r="G10" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
@@ -795,7 +806,7 @@
         <v>1005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4">
@@ -804,8 +815,8 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <v>2</v>
+      <c r="G11" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -815,7 +826,7 @@
         <v>1006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4">
@@ -824,8 +835,8 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
+      <c r="G12" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -835,7 +846,7 @@
         <v>1007</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4">
@@ -844,8 +855,8 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>2</v>
+      <c r="G13" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -855,7 +866,7 @@
         <v>1008</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4">
@@ -864,8 +875,8 @@
       <c r="F14" s="4">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
+      <c r="G14" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -875,7 +886,7 @@
         <v>1009</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4">
@@ -884,8 +895,8 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>0</v>
+      <c r="G15" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -895,10 +906,10 @@
         <v>1010</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -906,8 +917,8 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>0</v>
+      <c r="G16" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -917,10 +928,10 @@
         <v>1011</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -928,8 +939,8 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <v>0</v>
+      <c r="G17" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -939,10 +950,10 @@
         <v>1012</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -950,8 +961,8 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
-        <v>0</v>
+      <c r="G18" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -961,10 +972,10 @@
         <v>1013</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E19" s="4">
         <v>1</v>
@@ -972,8 +983,8 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
-        <v>0</v>
+      <c r="G19" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
@@ -983,10 +994,10 @@
         <v>1014</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -994,8 +1005,8 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
-        <v>0</v>
+      <c r="G20" s="4" t="s">
+        <v>46</v>
       </c>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -1005,10 +1016,10 @@
         <v>1015</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1016,8 +1027,8 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
-        <v>0</v>
+      <c r="G21" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Config/Datas/NumericType.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Config/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFD0C624-C6D4-D547-BDCF-0E0513E373D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD64FDAB-A42C-0E45-A88C-3D366BCC2C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2480" yWindow="2660" windowWidth="32880" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="2740" windowWidth="32880" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NumericType" sheetId="1" r:id="rId1"/>
@@ -566,7 +566,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
